--- a/mathematica/brik_and_ma_from_cowan.xlsx
+++ b/mathematica/brik_and_ma_from_cowan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan/Zia Lab/Codebase/qdef/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan/ZiaLab/Codebase/qdef/mathematica/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED941857-4EBE-C149-B88C-6B201C5981EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CFD254-EBDC-A247-92E9-830C6372E835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7580" yWindow="-21100" windowWidth="23220" windowHeight="21100" activeTab="1" xr2:uid="{39CB4F55-F54F-D440-BB09-A0180517BA25}"/>
+    <workbookView xWindow="17720" yWindow="-26200" windowWidth="23220" windowHeight="21100" activeTab="2" xr2:uid="{39CB4F55-F54F-D440-BB09-A0180517BA25}"/>
   </bookViews>
   <sheets>
     <sheet name="FromCowan" sheetId="1" r:id="rId1"/>
@@ -242,10 +242,10 @@
     <t>r^2/Å^2</t>
   </si>
   <si>
-    <t>Data in the FromCowan sheet in from "Theoretical Spectroscopy of Transition Metal and Rare Earth Ions" by Brik and Ma. These values are calculated values from Cowan's atomic structure code.</t>
+    <t>Data in the FromCowan sheet in from "Theoretical Spectroscopy of Transition Metal and Rare Earth Ions" by Brik and Ma, table 5.2. These values are calculated values from Cowan's atomic structure code.</t>
   </si>
   <si>
-    <t>Fit parameters in the sheet Fits are from the book "Theoretical Spectroscopy of Transition Metal and Rare Earth Ions" by Brik and Ma as found on Chapter 5.</t>
+    <t>Fit parameters in the sheet Fits are from the book "Theoretical Spectroscopy of Transition Metal and Rare Earth Ions" by Brik and Ma as found on Chapter 5, table 5.3.</t>
   </si>
 </sst>
 </file>
@@ -281,10 +281,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -603,7 +606,7 @@
   <dimension ref="A1:M183"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="I174" sqref="I174"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7654,8 +7657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F46226-C2FF-6045-8787-4A776B940C36}">
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9244,19 +9247,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEAA2323-42CB-9443-92AA-C926038FADF0}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="84.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>69</v>
       </c>
     </row>
